--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1180265.207847242</v>
+        <v>1224355.937484369</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.6830760746</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7284686.067420652</v>
+        <v>7764906.265021031</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +664,13 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -677,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>99.22789100784752</v>
       </c>
       <c r="T2" t="n">
-        <v>51.28180484925402</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>121.2482518332245</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.857062697108432</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -865,13 +867,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>327.2734776946116</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>195.5104445397025</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>65.45332427941484</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>92.01098438110735</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>264.9481049475941</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>202.5802216080011</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>19.23718477902527</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>35.21818527535722</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1306,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1339,22 +1341,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D11" t="n">
-        <v>269.7331885923164</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>134.9989678506928</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1591,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1615,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>388.7564274123291</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>106.38799505241</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1777,7 +1779,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1847,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1856,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>11.39996927779299</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2239,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898694</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>111.1186542427784</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>153.9723828910722</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2482,19 +2484,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>130.04008984845</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.3194424311361</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>130.0400898484501</v>
       </c>
       <c r="Y28" t="n">
-        <v>170.7512152514373</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2953,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>117.8622135428469</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3010,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3187,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3196,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>107.8005494885634</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>73.88082355467124</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3427,16 +3429,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3484,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>212.4615124460893</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3670,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>226.5878864637942</v>
+        <v>189.5733066869304</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3751,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>86.01158118605576</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>19.64740624208221</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>169.8571210237862</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>309.5058042150217</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4144,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>220.5479980920884</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.8471851408333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1639.919330369398</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.059004423102</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.766383608102</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>767.7894437559598</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>342.66526194536</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4331,49 +4333,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>455.3583126271592</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>455.3583126271592</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N2" t="n">
-        <v>1006.023847611597</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2124.681059525157</v>
       </c>
       <c r="T2" t="n">
-        <v>2068.744155457483</v>
+        <v>1903.75548856979</v>
       </c>
       <c r="U2" t="n">
-        <v>2068.744155457483</v>
+        <v>1645.400579166202</v>
       </c>
       <c r="V2" t="n">
-        <v>2068.744155457483</v>
+        <v>1287.911164292452</v>
       </c>
       <c r="W2" t="n">
-        <v>2068.744155457483</v>
+        <v>891.5198145927988</v>
       </c>
       <c r="X2" t="n">
-        <v>1657.02415662523</v>
+        <v>883.8402198009501</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.727290620524</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M3" t="n">
-        <v>1389.040378766978</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>1389.040378766978</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7123380797772</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="C4" t="n">
-        <v>266.7397749586933</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="D4" t="n">
-        <v>266.7397749586933</v>
+        <v>628.0088627795734</v>
       </c>
       <c r="E4" t="n">
-        <v>144.2667933089716</v>
+        <v>461.8006569324269</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>289.9388827069873</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4513,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.53329137545</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1654.348842875754</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V4" t="n">
-        <v>1372.637375483783</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W4" t="n">
-        <v>1097.784971656296</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X4" t="n">
-        <v>855.2210751021008</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="Y4" t="n">
-        <v>628.8783067918429</v>
+        <v>981.4916043648684</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.988227140365</v>
+        <v>831.8385222885896</v>
       </c>
       <c r="C5" t="n">
-        <v>1354.087497153665</v>
+        <v>808.9781963422938</v>
       </c>
       <c r="D5" t="n">
-        <v>930.7948763386659</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4595,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>1923.058660820666</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W5" t="n">
-        <v>2120.543958335517</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.864363543668</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>2111.567497538963</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>119.1699405917395</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>119.1699405917395</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>669.8354755761777</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
         <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
         <v>1771.166545545054</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>720.4238054717475</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>548.4512423506635</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>548.4512423506635</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>382.243036503517</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>210.3812622780775</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>210.3812622780775</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875753</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="V7" t="n">
-        <v>1654.348842875753</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1379.496439048266</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1136.932542494071</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>910.5897741838132</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>813.6310375047708</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
         <v>1100.603903091853</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>1570.164993359136</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="X8" t="n">
-        <v>1562.485398567287</v>
+        <v>1638.81667184141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>1233.479401796301</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>1145.829295018124</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1389.040378766978</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>983.7940744770483</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="C10" t="n">
-        <v>811.8215113559643</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>517.9594617607419</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1727.553143168988</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W10" t="n">
-        <v>1452.700739341501</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X10" t="n">
-        <v>1210.136842787306</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="Y10" t="n">
-        <v>983.7940744770483</v>
+        <v>871.4422033460369</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>764.0406467383571</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>337.1399167516572</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>64.68215049679215</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>64.68215049679215</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>64.68215049679215</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>117.2743796707</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>832.7826876461991</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1633.224300044002</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M11" t="n">
-        <v>1633.224300044002</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N11" t="n">
-        <v>2433.665912441805</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O11" t="n">
-        <v>3234.107524839607</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2754.827044480653</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2397.337629606903</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2000.94627990725</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>1589.226281074997</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1183.889011029887</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L12" t="n">
-        <v>865.123762894595</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.928168679499</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N12" t="n">
-        <v>1873.369781077302</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>288.7612160464561</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="C13" t="n">
-        <v>116.7886529253721</v>
+        <v>845.0285345763751</v>
       </c>
       <c r="D13" t="n">
-        <v>64.68215049679215</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E13" t="n">
-        <v>64.68215049679215</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F13" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2097.088765190713</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1853.749417416613</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>1573.564968916917</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>1291.853501524946</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>1017.001097697459</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1342.455632567474</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>915.5549025807743</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>492.2622817657746</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>492.2622817657746</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>492.2622817657746</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>99.57902175332094</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>780.1904584722912</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.632070870094</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="M14" t="n">
-        <v>2381.073683267897</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N14" t="n">
-        <v>3116.551189957705</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2975.752615436019</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2975.752615436019</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2579.361265736366</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2167.641266904114</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1762.303996859004</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>655.1670770651317</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="L15" t="n">
-        <v>1455.608689462935</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M15" t="n">
-        <v>1455.608689462935</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N15" t="n">
-        <v>1455.608689462935</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.863273021029</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541296</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.09517790992</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>2245.09517790992</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>2081.788310425035</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>1806.935906597548</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="X16" t="n">
-        <v>1564.372010043353</v>
+        <v>1015.517151278464</v>
       </c>
       <c r="Y16" t="n">
-        <v>1338.029241733095</v>
+        <v>789.1743829682065</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5513,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5589,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2039.376393044857</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>973.9392920493918</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>747.5965237391339</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>305.3113489363686</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M21" t="n">
-        <v>305.3113489363686</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N21" t="n">
-        <v>305.3113489363686</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>552.7245472657505</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>380.7519841446704</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>380.7519841446704</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>214.5437782975239</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>214.5437782975239</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>214.5437782975239</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2080.149468020199</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1799.965019520503</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1518.253552128532</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.8905159778161</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>396.9731123886033</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>233.656339515374</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>233.656339515374</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>233.656339515374</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>2112.580693338092</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>2112.580693338092</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1837.728289510605</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1595.16439295641</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6229,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1983.783825177544</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6300,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402536</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281452</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4897.962009497735</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4897.962009497735</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4897.962009497735</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>4623.109605670248</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>4380.545709116053</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3893.391669603337</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>3721.419106482253</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>3558.102333609023</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>3391.894127761877</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>3220.032353536437</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3053.775383830669</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4871.796322517327</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4591.611874017632</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4309.90040662566</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>4309.90040662566</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>4309.90040662566</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>4083.557638315402</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818557</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1122.511505632468</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C34" t="n">
-        <v>950.5389425113838</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D34" t="n">
-        <v>787.2221696381545</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>621.013963791008</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>1869.241345563992</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V34" t="n">
-        <v>1587.529878172021</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W34" t="n">
-        <v>1312.677474344533</v>
+        <v>1429.01906963393</v>
       </c>
       <c r="X34" t="n">
-        <v>1312.677474344533</v>
+        <v>1186.455173079735</v>
       </c>
       <c r="Y34" t="n">
-        <v>1312.677474344533</v>
+        <v>960.1124047694775</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7023,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>603.8002552472883</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>431.8276921262043</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D37" t="n">
-        <v>268.510919252975</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.872888823807</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1020.308992269612</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>793.966223959354</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,37 +7162,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7199,10 +7201,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>2112.580693338092</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1830.869225946121</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1830.869225946121</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1340.852441150634</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>913.9517111639343</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>490.6590903489346</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>64.68215049679215</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68215049679215</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>427.2856093136876</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1227.727221711491</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2028.168834109293</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>2828.610446507096</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>3013.181953884241</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2655.69253901049</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2259.301189310837</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>1847.581190478584</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1760.700805442164</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I42" t="n">
-        <v>72.12879345870398</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J42" t="n">
-        <v>72.12879345870398</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K42" t="n">
-        <v>72.12879345870398</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L42" t="n">
-        <v>72.12879345870398</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M42" t="n">
-        <v>872.5704058565068</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="N42" t="n">
-        <v>1673.01201825431</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>4539.701767086725</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>563.6136198739432</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="C43" t="n">
-        <v>391.6410567528592</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="D43" t="n">
-        <v>228.3242838796299</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="E43" t="n">
-        <v>228.3242838796299</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="F43" t="n">
-        <v>228.3242838796299</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>228.3242838796299</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>84.52801538778428</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="U43" t="n">
-        <v>1504.397720842433</v>
+        <v>4615.100733636837</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.686253450462</v>
+        <v>4333.389266244865</v>
       </c>
       <c r="W43" t="n">
-        <v>1222.686253450462</v>
+        <v>4058.536862417378</v>
       </c>
       <c r="X43" t="n">
-        <v>980.1223568962668</v>
+        <v>3815.972965863184</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.7795885860088</v>
+        <v>3589.630197552925</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1079.521716903027</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1079.521716903027</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1079.521716903027</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>766.8895914333086</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>766.8895914333086</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>427.2856093136876</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>427.2856093136876</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>1227.727221711491</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N44" t="n">
-        <v>1227.727221711491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>2028.168834109293</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2736.448113267221</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2292.970335480043</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>1896.57898578039</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>1484.858986948137</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1079.521716903027</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290553</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808058</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323343</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.49558959628</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279184</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496788</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>1425.419894259098</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>1425.419894259098</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>2015.904820827438</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L45" t="n">
-        <v>2015.904820827438</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M45" t="n">
-        <v>2015.904820827438</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N45" t="n">
-        <v>2015.904820827438</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O45" t="n">
-        <v>2053.76433093833</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P45" t="n">
-        <v>2769.962047976828</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>3234.107524839607</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839607</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.783277400862</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.90334169854</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618177</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757443</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.64062959066</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357324</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710616</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>845.1393234720196</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>673.1667603509355</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>509.8499874777062</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2001.75583013582</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>2001.75583013582</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>2001.75583013582</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W46" t="n">
-        <v>1726.903426308333</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="X46" t="n">
-        <v>1484.339529754139</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>1035.305292184085</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>84.50867025038121</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>268.7645418748068</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8225,7 +8227,7 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>452.289812307084</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8234,10 +8236,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>88.51522805109107</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>96.76900350898808</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>267.0107895760204</v>
+        <v>371.0330466836703</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>82.54342329761465</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>607.201212966307</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>233.0002206990998</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234435</v>
+        <v>298.7446820670145</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>886.6939262492853</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>780.1861952483933</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9008,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>482.0566840416755</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9018,13 +9020,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>445.1527903427953</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9176,7 +9178,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>835.1882033210079</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>775.2973590804446</v>
       </c>
       <c r="M18" t="n">
-        <v>106.3367244377138</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9483,25 +9485,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>227.5743145228559</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>912.679259982217</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9719,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>197.3567057122801</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,16 +9877,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>630.9692526488932</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9893,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>291.2228204893258</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>883.9207714806259</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>768.7505555806109</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10908,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>475.2939470053066</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>446.983967772702</v>
+        <v>382.6985455853151</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>225.5534683313054</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>279.5761010481211</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>165.8504292605622</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>420.0671763121574</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>474.650675344883</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>61.41381912716429</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D11" t="n">
-        <v>149.3265060145333</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>33.4347291553637</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>11.53924437411678</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.29561009208696</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.7382883108599</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>31.23965156414873</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>86.93357140528681</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>34.55431016026014</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.759898196019321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>110.0981677402029</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.32812537571806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>24.49609226408022</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.34260699462175</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>198.2230562345409</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>113.008962604416</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>59.6423673431228</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>13.55037112485869</v>
+        <v>50.56495090172248</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>315.2723161586028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>79.12347633504457</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>107.5254829909125</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>112.2113662385993</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>51.55588169712365</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>79.23215548632203</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>501073.0901743867</v>
+        <v>665427.9488565398</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>501073.0901743867</v>
+        <v>665427.9488565398</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675763.2503626762</v>
+        <v>675763.2503626761</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675763.2503626762</v>
+        <v>675763.2503626761</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675763.2503626761</v>
+        <v>675763.2503626762</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675763.2503626762</v>
+        <v>675763.2503626761</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675763.2503626761</v>
+        <v>675763.2503626762</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675763.2503626762</v>
+        <v>675763.2503626761</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>501073.0901743866</v>
+        <v>665427.9488565398</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>501073.0901743867</v>
+        <v>665427.9488565398</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>393148.8009075351</v>
       </c>
       <c r="E2" t="n">
-        <v>281314.6956018535</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="F2" t="n">
-        <v>281314.6956018535</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="G2" t="n">
+        <v>379370.5221177771</v>
+      </c>
+      <c r="H2" t="n">
         <v>379370.522117777</v>
-      </c>
-      <c r="H2" t="n">
-        <v>379370.5221177769</v>
       </c>
       <c r="I2" t="n">
         <v>379370.5221177769</v>
       </c>
       <c r="J2" t="n">
-        <v>379370.5221177768</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="K2" t="n">
         <v>379370.5221177768</v>
       </c>
       <c r="L2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="M2" t="n">
-        <v>379370.5221177768</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="N2" t="n">
         <v>379370.5221177767</v>
       </c>
       <c r="O2" t="n">
-        <v>281314.6956018536</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="P2" t="n">
-        <v>281314.6956018534</v>
+        <v>373569.1848794165</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>182621.0655158991</v>
       </c>
       <c r="C4" t="n">
-        <v>182621.065515899</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
         <v>182621.065515899</v>
       </c>
       <c r="E4" t="n">
-        <v>53631.12390475634</v>
+        <v>71271.3388391534</v>
       </c>
       <c r="F4" t="n">
-        <v>53631.12390475634</v>
+        <v>71271.3388391534</v>
       </c>
       <c r="G4" t="n">
         <v>72380.62724986373</v>
@@ -26439,13 +26441,13 @@
         <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="K4" t="n">
         <v>72380.62724986373</v>
       </c>
-      <c r="K4" t="n">
-        <v>72380.62724986371</v>
-      </c>
       <c r="L4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
         <v>72380.62724986371</v>
@@ -26454,10 +26456,10 @@
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>53631.12390475634</v>
+        <v>71271.3388391534</v>
       </c>
       <c r="P4" t="n">
-        <v>53631.12390475633</v>
+        <v>71271.33883915341</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-43323.24906052934</v>
       </c>
       <c r="C6" t="n">
-        <v>143081.484354208</v>
+        <v>143081.4843542079</v>
       </c>
       <c r="D6" t="n">
-        <v>143081.484354208</v>
+        <v>143081.4843542079</v>
       </c>
       <c r="E6" t="n">
-        <v>103194.1861660729</v>
+        <v>18807.08031566965</v>
       </c>
       <c r="F6" t="n">
-        <v>178525.1373195351</v>
+        <v>226239.3679322305</v>
       </c>
       <c r="G6" t="n">
-        <v>100349.4328679431</v>
+        <v>221614.2105960022</v>
       </c>
       <c r="H6" t="n">
-        <v>229239.8326794835</v>
+        <v>229239.8326794836</v>
       </c>
       <c r="I6" t="n">
         <v>229239.8326794835</v>
       </c>
       <c r="J6" t="n">
-        <v>83706.16274466687</v>
+        <v>83706.16274466703</v>
       </c>
       <c r="K6" t="n">
         <v>229239.8326794834</v>
       </c>
       <c r="L6" t="n">
-        <v>229239.8326794836</v>
+        <v>229239.8326794835</v>
       </c>
       <c r="M6" t="n">
-        <v>166365.8957141095</v>
+        <v>56109.34147384398</v>
       </c>
       <c r="N6" t="n">
         <v>229239.8326794833</v>
       </c>
       <c r="O6" t="n">
-        <v>178525.1373195352</v>
+        <v>226239.3679322306</v>
       </c>
       <c r="P6" t="n">
-        <v>178525.1373195351</v>
+        <v>226239.3679322306</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,13 +27384,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.095730177743476</v>
       </c>
       <c r="T2" t="n">
-        <v>167.4345103965591</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>43.2978719554505</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>162.7373373116017</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.37640295400314</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>23.20587070611069</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>76.90498152751231</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>185.3716196335914</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>157.6836177392387</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7036757366575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>142.4464203654717</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>129.3279385133177</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28959,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>245.6677613624788</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34945,7 +34947,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34954,10 +34956,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>67.90411371775774</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
+        <v>349.6900184701286</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>245.6677613624788</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>53.12346381202813</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>568.8891705336841</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099018</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>848.3818838166624</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>742.9065724139473</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>459.6574502083421</v>
       </c>
       <c r="L15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>421.9809006205731</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35896,7 +35898,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>797.7972439649839</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>752.782272366215</v>
       </c>
       <c r="M18" t="n">
-        <v>83.23994392538586</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>205.0592278086264</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>891.3362317686754</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,16 +36597,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>595.2046518540839</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36613,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>846.4895085811942</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>746.2354688663813</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.1971664929786</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>409.5930084166779</v>
+        <v>345.307586229291</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>202.3815786090831</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>257.8052598432924</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>128.5708064261162</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>383.9425017075593</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>452.1355886306534</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>38.24192940494206</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224355.937484369</v>
+        <v>1223637.947369511</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760746</v>
+        <v>698313.6830760741</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.22789100784752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>50.77901812021</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -828,10 +828,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.857062697108432</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.92260257517155</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -913,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>195.5104445397025</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>103.1531638478813</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>92.01098438110735</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>264.9481049475941</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>95.58060005053804</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
-        <v>35.21818527535722</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1356,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1539,10 +1539,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>134.9989678506928</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>206.3488263958401</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>299.6307676069974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>106.38799505241</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1818,7 +1818,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1827,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>161.5652219229775</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>276.5676752477886</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>11.39996927779299</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2241,16 +2241,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2259,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>153.9723828910722</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>110.8782911809625</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.04008984845</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>109.4091947656459</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>130.0400898484501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>69.70658994605395</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>73.88082355467124</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>90.41020405525617</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>193.4805757899039</v>
       </c>
       <c r="X40" t="n">
-        <v>189.5733066869304</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3900,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>47.27640566665583</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -3918,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>169.8571210237862</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3963,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -4036,7 +4036,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4146,16 +4146,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>58.18624533314358</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>220.5479980920884</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N2" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O2" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462377</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.681059525157</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1903.75548856979</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1645.400579166202</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1287.911164292452</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>891.5198145927988</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>883.8402198009501</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>201.1892506764427</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L3" t="n">
-        <v>201.1892506764427</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>791.3256356528027</v>
+        <v>955.8175733480448</v>
       </c>
       <c r="C4" t="n">
-        <v>791.3256356528027</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D4" t="n">
-        <v>628.0088627795734</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E4" t="n">
-        <v>461.8006569324269</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F4" t="n">
-        <v>289.9388827069873</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4488,19 +4488,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>2171.454078144021</v>
       </c>
       <c r="V4" t="n">
-        <v>1482.686776502613</v>
+        <v>1889.74261075205</v>
       </c>
       <c r="W4" t="n">
-        <v>1207.834372675126</v>
+        <v>1614.890206924563</v>
       </c>
       <c r="X4" t="n">
-        <v>1207.834372675126</v>
+        <v>1372.326310370368</v>
       </c>
       <c r="Y4" t="n">
-        <v>981.4916043648684</v>
+        <v>1145.98354206011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.8385222885896</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C5" t="n">
-        <v>808.9781963422938</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4570,13 +4570,13 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M5" t="n">
         <v>957.7672188505812</v>
-      </c>
-      <c r="L5" t="n">
-        <v>957.7672188505812</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
         <v>1508.432753835019</v>
@@ -4585,34 +4585,34 @@
         <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1923.058660820666</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.703751417078</v>
+        <v>2120.716137464517</v>
       </c>
       <c r="V5" t="n">
-        <v>1664.703751417078</v>
+        <v>1763.226722590766</v>
       </c>
       <c r="W5" t="n">
-        <v>1664.703751417078</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.024156625229</v>
+        <v>955.1153740588602</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.68688658012</v>
+        <v>549.7781040137505</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4755,22 +4755,22 @@
         <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>1961.835816717766</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V7" t="n">
-        <v>1961.835816717766</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W7" t="n">
-        <v>1686.983412890279</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.419516336084</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.6310375047708</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728575</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,25 +4807,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>549.9383681074144</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2128.365191805267</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.81667184141</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.479401796301</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="9">
@@ -4889,22 +4889,22 @@
         <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>874.3078922751886</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>681.2762346339712</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>681.2762346339712</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>517.9594617607419</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1097.784971656295</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.4422033460369</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5041,19 +5041,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>462.6804036958856</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>1178.188711671385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>1741.388990499732</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>2745.67509191879</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
         <v>3721.926150405491</v>
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="M12" t="n">
-        <v>371.7744341585812</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>646.4020714735193</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>646.4020714735193</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1362.599788512017</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.001097697459</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="C13" t="n">
-        <v>845.0285345763751</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="D13" t="n">
-        <v>681.7117617031458</v>
+        <v>676.106957183474</v>
       </c>
       <c r="E13" t="n">
-        <v>515.5035558559994</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6417816305598</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
         <v>343.6417816305598</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.088765190713</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1853.749417416613</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>1573.564968916917</v>
+        <v>1828.717466542422</v>
       </c>
       <c r="V13" t="n">
-        <v>1291.853501524946</v>
+        <v>1547.005999150451</v>
       </c>
       <c r="W13" t="n">
-        <v>1017.001097697459</v>
+        <v>1272.153595322964</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.001097697459</v>
+        <v>1029.589698768769</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.001097697459</v>
+        <v>1029.589698768769</v>
       </c>
     </row>
     <row r="14">
@@ -5284,22 +5284,22 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>2994.337835136581</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5311,13 +5311,13 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
         <v>3363.661363873117</v>
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>555.1378205852488</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1378205852488</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M15" t="n">
-        <v>555.1378205852488</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="N15" t="n">
-        <v>555.1378205852488</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.1743829682065</v>
+        <v>873.2048292056135</v>
       </c>
       <c r="C16" t="n">
-        <v>789.1743829682065</v>
+        <v>701.2322660845294</v>
       </c>
       <c r="D16" t="n">
-        <v>681.7117617031458</v>
+        <v>537.9154932113001</v>
       </c>
       <c r="E16" t="n">
-        <v>515.5035558559994</v>
+        <v>371.7072873641537</v>
       </c>
       <c r="F16" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
         <v>199.8455131387141</v>
@@ -5466,22 +5466,22 @@
         <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724326</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.081047832659</v>
+        <v>1501.420395606759</v>
       </c>
       <c r="W16" t="n">
-        <v>1258.081047832659</v>
+        <v>1226.567991779272</v>
       </c>
       <c r="X16" t="n">
-        <v>1015.517151278464</v>
+        <v>1226.567991779272</v>
       </c>
       <c r="Y16" t="n">
-        <v>789.1743829682065</v>
+        <v>1063.370797917679</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5521,22 +5521,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5594,28 +5594,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.5965237391339</v>
+        <v>545.9056190120762</v>
       </c>
       <c r="C19" t="n">
-        <v>575.6239606180499</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="D19" t="n">
-        <v>412.3071877448206</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E19" t="n">
-        <v>246.0989818976742</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F19" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1479.830656416082</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1204.978252588595</v>
       </c>
       <c r="X19" t="n">
-        <v>973.9392920493918</v>
+        <v>962.4143560343998</v>
       </c>
       <c r="Y19" t="n">
-        <v>747.5965237391339</v>
+        <v>736.0715877241419</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>946.5481644506465</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>946.5481644506465</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2080.149468020199</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1799.965019520503</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1518.253552128532</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="W22" t="n">
-        <v>1243.401148301044</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="X22" t="n">
-        <v>1000.83725174685</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="Y22" t="n">
-        <v>774.4944834365917</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.654482149731</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3813.905540636432</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,22 +6065,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>275.5106105659859</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="L24" t="n">
-        <v>275.5106105659859</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O24" t="n">
         <v>1364.825557038856</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>568.9456755096874</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C25" t="n">
-        <v>396.9731123886033</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D25" t="n">
-        <v>233.656339515374</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E25" t="n">
-        <v>233.656339515374</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>233.656339515374</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2125.162789359013</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1881.823441584913</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1601.638993085217</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1319.927525693246</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1045.075121865759</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>802.5112253115642</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.1116442217531</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="26">
@@ -6232,19 +6232,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6308,19 +6308,19 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
         <v>1364.825557038856</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6469,19 +6469,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2467.904347614084</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
         <v>1828.971033901635</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>769.9464360574118</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6888,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.646164133598</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1429.01906963393</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.455173079735</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>960.1124047694775</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>557.3635891120873</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
         <v>1446.844867123559</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>844.5735305570797</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>672.6009674359957</v>
       </c>
       <c r="D37" t="n">
-        <v>154.4092158344085</v>
+        <v>509.2841945627664</v>
       </c>
       <c r="E37" t="n">
-        <v>154.4092158344085</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F37" t="n">
-        <v>154.4092158344085</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7125,22 +7125,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1261.082267579403</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1034.739499269145</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2720.098147267829</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>3696.34920575453</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,25 +7250,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>381.4468456473314</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L39" t="n">
-        <v>381.4468456473314</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M39" t="n">
-        <v>381.4468456473314</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N39" t="n">
-        <v>381.4468456473314</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O39" t="n">
-        <v>1270.928123658803</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
         <v>1364.825557038856</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.8002552472883</v>
+        <v>913.8534934449018</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8276921262043</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D40" t="n">
-        <v>268.510919252975</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7368,16 +7368,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1346.583358711162</v>
       </c>
       <c r="X40" t="n">
-        <v>793.966223959354</v>
+        <v>1104.019462156967</v>
       </c>
       <c r="Y40" t="n">
-        <v>793.966223959354</v>
+        <v>1104.019462156967</v>
       </c>
     </row>
     <row r="41">
@@ -7420,13 +7420,13 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4430.205429563419</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
         <v>4430.205429563419</v>
@@ -7441,10 +7441,10 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
         <v>4171.772712405023</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>4284.474559841866</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O42" t="n">
-        <v>4284.474559841866</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P42" t="n">
-        <v>4539.701767086725</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>5003.847243949504</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3399.46422884086</v>
+        <v>793.0626752931066</v>
       </c>
       <c r="C43" t="n">
-        <v>3399.46422884086</v>
+        <v>745.3087301752724</v>
       </c>
       <c r="D43" t="n">
-        <v>3399.46422884086</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="E43" t="n">
-        <v>3233.256022993713</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.808630636678</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>4786.673583155813</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>4786.673583155813</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>4615.100733636837</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>4333.389266244865</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>4058.536862417378</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X43" t="n">
-        <v>3815.972965863184</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="Y43" t="n">
-        <v>3589.630197552925</v>
+        <v>983.2286440051723</v>
       </c>
     </row>
     <row r="44">
@@ -7648,16 +7648,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
         <v>2876.781500254679</v>
@@ -7684,16 +7684,16 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>555.1378205852488</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>555.1378205852488</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>555.1378205852488</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.619098596721</v>
+        <v>989.5582228904617</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.619098596721</v>
+        <v>1705.75593992896</v>
       </c>
       <c r="Q45" t="n">
         <v>1908.7645754595</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.1393234720196</v>
+        <v>832.210246130883</v>
       </c>
       <c r="C46" t="n">
-        <v>673.1667603509355</v>
+        <v>660.237683009799</v>
       </c>
       <c r="D46" t="n">
-        <v>509.8499874777062</v>
+        <v>496.9209101365697</v>
       </c>
       <c r="E46" t="n">
-        <v>343.6417816305598</v>
+        <v>330.7127042894232</v>
       </c>
       <c r="F46" t="n">
-        <v>343.6417816305598</v>
+        <v>158.8509300639836</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7842,16 +7842,16 @@
         <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.081047832659</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="W46" t="n">
-        <v>1035.305292184085</v>
+        <v>1264.940111397143</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.305292184085</v>
+        <v>1022.376214842949</v>
       </c>
       <c r="Y46" t="n">
-        <v>1035.305292184085</v>
+        <v>1022.376214842949</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104035</v>
@@ -7987,10 +7987,10 @@
         <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>110.4928214404736</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -7999,7 +7999,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>550.6255558370718</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8142,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8218,7 +8218,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8227,19 +8227,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>96.76900350898808</v>
+        <v>176.6411400339851</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>571.1852249800525</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>371.0330466836703</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>455.2848447234538</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>607.201212966307</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>917.0559591314635</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>72.59316121846746</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>298.7446820670145</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>886.6939262492853</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>482.0566840416755</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,13 +9020,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>126.4645803159202</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9169,16 +9169,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>835.1882033210079</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L18" t="n">
-        <v>775.2973590804446</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>867.7664080100944</v>
@@ -9491,10 +9491,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>912.679259982217</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9503,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>772.395863235019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>197.3567057122801</v>
+        <v>117.2451261364169</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,10 +9728,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9880,13 +9880,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9956,7 +9956,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,13 +9965,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>291.2228204893258</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10117,13 +10117,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10132,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10205,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,10 +10354,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>768.7505555806109</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10445,10 +10445,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,13 +10676,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>481.0004784218839</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10916,10 +10916,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>116.6167335079122</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>382.6985455853151</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P42" t="n">
-        <v>279.5761010481211</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>165.8504292605622</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11381,7 +11381,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>474.650675344883</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,10 +11393,10 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>227.8062660976048</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>33.4347291553637</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>71.03377761885869</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.29561009208696</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>62.51411870417792</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2.32667747026278</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.7382883108599</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>86.93357140528681</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>168.0160615370889</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.55431016026014</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>59.02450224041058</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>198.2230562345409</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>74.1359197334188</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>113.008962604416</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>78.62330399930818</v>
       </c>
       <c r="X40" t="n">
-        <v>50.56495090172248</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>122.9764318232173</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>107.5254829909125</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>106.4081546755666</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>51.55588169712365</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675763.2503626761</v>
+        <v>675763.2503626762</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675763.2503626762</v>
+        <v>675763.250362676</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675763.2503626762</v>
+        <v>675763.250362676</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665427.9488565398</v>
+        <v>665427.9488565397</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393148.8009075351</v>
+        <v>393148.8009075352</v>
       </c>
       <c r="C2" t="n">
         <v>393148.8009075351</v>
       </c>
       <c r="D2" t="n">
-        <v>393148.8009075351</v>
+        <v>393148.8009075352</v>
       </c>
       <c r="E2" t="n">
-        <v>373569.1848794164</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="F2" t="n">
-        <v>373569.1848794164</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="G2" t="n">
-        <v>379370.5221177771</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="H2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="I2" t="n">
         <v>379370.5221177769</v>
       </c>
       <c r="J2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="K2" t="n">
+        <v>379370.522117777</v>
+      </c>
+      <c r="L2" t="n">
         <v>379370.5221177768</v>
       </c>
-      <c r="L2" t="n">
-        <v>379370.5221177769</v>
-      </c>
       <c r="M2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="N2" t="n">
-        <v>379370.5221177767</v>
+        <v>379370.522117777</v>
       </c>
       <c r="O2" t="n">
-        <v>373569.1848794164</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="P2" t="n">
         <v>373569.1848794165</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="C4" t="n">
         <v>182621.0655158991</v>
@@ -26426,10 +26426,10 @@
         <v>182621.065515899</v>
       </c>
       <c r="E4" t="n">
-        <v>71271.3388391534</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="F4" t="n">
-        <v>71271.3388391534</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="G4" t="n">
         <v>72380.62724986373</v>
@@ -26438,10 +26438,10 @@
         <v>72380.62724986373</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="K4" t="n">
         <v>72380.62724986373</v>
@@ -26450,13 +26450,13 @@
         <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>71271.3388391534</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="P4" t="n">
         <v>71271.33883915341</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43323.24906052934</v>
+        <v>-43323.24906052917</v>
       </c>
       <c r="C6" t="n">
         <v>143081.4843542079</v>
       </c>
       <c r="D6" t="n">
-        <v>143081.4843542079</v>
+        <v>143081.484354208</v>
       </c>
       <c r="E6" t="n">
-        <v>18807.08031566965</v>
+        <v>18734.56321926936</v>
       </c>
       <c r="F6" t="n">
-        <v>226239.3679322305</v>
+        <v>226166.8508358303</v>
       </c>
       <c r="G6" t="n">
-        <v>221614.2105960022</v>
+        <v>221563.1799338177</v>
       </c>
       <c r="H6" t="n">
-        <v>229239.8326794836</v>
+        <v>229188.8020172991</v>
       </c>
       <c r="I6" t="n">
-        <v>229239.8326794835</v>
+        <v>229188.8020172992</v>
       </c>
       <c r="J6" t="n">
-        <v>83706.16274466703</v>
+        <v>83655.13208248281</v>
       </c>
       <c r="K6" t="n">
-        <v>229239.8326794834</v>
+        <v>229188.8020172993</v>
       </c>
       <c r="L6" t="n">
-        <v>229239.8326794835</v>
+        <v>229188.8020172991</v>
       </c>
       <c r="M6" t="n">
-        <v>56109.34147384398</v>
+        <v>56058.31081165971</v>
       </c>
       <c r="N6" t="n">
-        <v>229239.8326794833</v>
+        <v>229188.8020172993</v>
       </c>
       <c r="O6" t="n">
-        <v>226239.3679322306</v>
+        <v>226166.8508358302</v>
       </c>
       <c r="P6" t="n">
-        <v>226239.3679322306</v>
+        <v>226166.8508358302</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.095730177743476</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>350.5048792244486</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>162.7373373116017</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>224.4600014395272</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>23.20587070611069</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>152.6181964616705</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>63.52994056050457</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27827,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>185.3716196335914</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>157.6836177392387</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>160.1907602590138</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
-        <v>129.3279385133177</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155941</v>
@@ -34707,11 +34707,11 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
+        <v>73.06155854104179</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
@@ -34719,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34938,7 +34938,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>155.2981118204434</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>75.42597529544641</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>568.8891705336841</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>879.6246962320317</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>50.0780745042379</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>848.3818838166624</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>459.6574502083421</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>103.292690593698</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>797.7972439649839</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L18" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>845.2513212958648</v>
@@ -36211,10 +36211,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>891.3362317686754</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>734.9646003355872</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>174.9574718789468</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36676,7 +36676,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36837,13 +36837,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36852,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>746.2354688663813</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>94.84589230308353</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>345.307586229291</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P42" t="n">
-        <v>257.8052598432924</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>128.5708064261162</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>452.1355886306534</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
